--- a/defect report.xlsx
+++ b/defect report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/project/uttam testing/defect report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90E01D-E237-FA48-AB38-FFC54B1D3EBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5357F93D-9E1D-8441-80A3-9DFD8BDB136B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25580" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defect report" sheetId="1" r:id="rId1"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BVE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24"/>
@@ -4855,8 +4855,17 @@
     <hyperlink ref="L21" r:id="rId3" xr:uid="{E2312EDF-0C0E-7449-AC17-9D51A6B59823}"/>
     <hyperlink ref="L17" r:id="rId4" xr:uid="{81ECF682-AC34-464B-A9EF-176EA36C6856}"/>
     <hyperlink ref="L3" r:id="rId5" xr:uid="{9CAFEF60-267D-BC43-8D50-313E4EE09AFD}"/>
+    <hyperlink ref="L2" r:id="rId6" xr:uid="{E34867C4-B542-084E-87CC-49459E031566}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{0AF3C3AB-D03E-6E4F-B7E2-5B33FE334A21}"/>
+    <hyperlink ref="L6" r:id="rId8" xr:uid="{FCC075C5-C51E-F24F-96F8-40D24FDDE3CD}"/>
+    <hyperlink ref="L5" r:id="rId9" xr:uid="{34A4B2B2-F9E8-394F-B4C6-8425CC4622C3}"/>
+    <hyperlink ref="L8" r:id="rId10" xr:uid="{DF503F9A-3159-7949-BD8B-B7BF3FFD7E56}"/>
+    <hyperlink ref="L12" r:id="rId11" xr:uid="{9E7FF779-0152-244C-8705-918C4B94ED70}"/>
+    <hyperlink ref="L11" r:id="rId12" xr:uid="{62076DA7-6060-C54A-9CF5-FFE5C9CB6E42}"/>
+    <hyperlink ref="L15" r:id="rId13" xr:uid="{8B3D0FF3-39CF-9F4E-932D-1698DE37F03D}"/>
+    <hyperlink ref="L18" r:id="rId14" xr:uid="{31959053-15CB-2A4D-9392-4D2270D84B5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>